--- a/GE Locomotives.xlsx
+++ b/GE Locomotives.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ds57534\Documents\GitHub\Web-Scraping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8BE69557-7D21-478E-8422-A15B85944E5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39C48ECD-40E9-4F00-857D-B8F46DD99288}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{0A46C664-D1A3-4C1C-ADD0-5FEC6ED39D8C}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="44">
   <si>
     <t>20-ton Boxcab</t>
   </si>
@@ -60,9 +60,6 @@
     <t>45-ton</t>
   </si>
   <si>
-    <t>300 hp (220 kW)</t>
-  </si>
-  <si>
     <t>GE 45-Ton switcher "Drop Cab"</t>
   </si>
   <si>
@@ -157,33 +154,6 @@
   </si>
   <si>
     <t>1975–1981</t>
-  </si>
-  <si>
-    <t>940 hp</t>
-  </si>
-  <si>
-    <t>800 hp</t>
-  </si>
-  <si>
-    <t>580 hp</t>
-  </si>
-  <si>
-    <t>600 hp</t>
-  </si>
-  <si>
-    <t>600 hp</t>
-  </si>
-  <si>
-    <t>1,000 hp</t>
-  </si>
-  <si>
-    <t>1,100 hp</t>
-  </si>
-  <si>
-    <t>400 hp</t>
-  </si>
-  <si>
-    <t>150 hp</t>
   </si>
   <si>
     <t>Model</t>
@@ -231,8 +201,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -550,23 +521,23 @@
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="B1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C1" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="D1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -579,8 +550,8 @@
       <c r="C2">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
-        <v>49</v>
+      <c r="D2">
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -593,8 +564,8 @@
       <c r="C3">
         <v>6</v>
       </c>
-      <c r="D3" t="s">
-        <v>49</v>
+      <c r="D3">
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -607,8 +578,8 @@
       <c r="C4">
         <v>29</v>
       </c>
-      <c r="D4" t="s">
-        <v>49</v>
+      <c r="D4">
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -621,8 +592,8 @@
       <c r="C5">
         <v>510</v>
       </c>
-      <c r="D5" t="s">
-        <v>49</v>
+      <c r="D5">
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -635,8 +606,8 @@
       <c r="C6">
         <v>386</v>
       </c>
-      <c r="D6" t="s">
-        <v>48</v>
+      <c r="D6">
+        <v>400</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -646,16 +617,16 @@
       <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="D7" t="s">
-        <v>8</v>
+      <c r="D7">
+        <v>300</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
         <v>9</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
       </c>
       <c r="C8">
         <v>103</v>
@@ -663,7 +634,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9">
         <v>1941</v>
@@ -674,7 +645,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10">
         <v>1955</v>
@@ -685,10 +656,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
         <v>13</v>
-      </c>
-      <c r="B11" t="s">
-        <v>14</v>
       </c>
       <c r="C11">
         <v>58</v>
@@ -696,7 +667,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12">
         <v>1931</v>
@@ -707,7 +678,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13">
         <v>1935</v>
@@ -718,10 +689,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
         <v>17</v>
-      </c>
-      <c r="B14" t="s">
-        <v>18</v>
       </c>
       <c r="C14">
         <v>2</v>
@@ -729,10 +700,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" t="s">
         <v>19</v>
-      </c>
-      <c r="B15" t="s">
-        <v>20</v>
       </c>
       <c r="C15">
         <v>10</v>
@@ -740,7 +711,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B16">
         <v>1937</v>
@@ -751,7 +722,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>1939</v>
@@ -762,21 +733,21 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
         <v>23</v>
-      </c>
-      <c r="B18" t="s">
-        <v>24</v>
       </c>
       <c r="C18">
         <v>238</v>
       </c>
-      <c r="D18" t="s">
-        <v>43</v>
+      <c r="D18">
+        <v>580</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B19">
         <v>1944</v>
@@ -787,7 +758,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B20">
         <v>1953</v>
@@ -795,38 +766,38 @@
       <c r="C20">
         <v>10</v>
       </c>
-      <c r="D20" t="s">
-        <v>42</v>
+      <c r="D20">
+        <v>800</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" t="s">
-        <v>41</v>
+        <v>26</v>
+      </c>
+      <c r="D21">
+        <v>940</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" t="s">
         <v>28</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>29</v>
       </c>
-      <c r="C22" t="s">
-        <v>30</v>
-      </c>
-      <c r="D22" t="s">
-        <v>44</v>
+      <c r="D22">
+        <v>600</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C23">
         <v>11</v>
@@ -834,10 +805,10 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" t="s">
         <v>32</v>
-      </c>
-      <c r="B24" t="s">
-        <v>33</v>
       </c>
       <c r="C24">
         <v>7</v>
@@ -845,58 +816,58 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C25">
         <v>7</v>
       </c>
-      <c r="D25" t="s">
-        <v>45</v>
+      <c r="D25">
+        <v>600</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" t="s">
         <v>35</v>
-      </c>
-      <c r="B26" t="s">
-        <v>36</v>
       </c>
       <c r="C26">
         <v>10</v>
       </c>
-      <c r="D26" t="s">
-        <v>45</v>
+      <c r="D26">
+        <v>600</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" t="s">
         <v>37</v>
-      </c>
-      <c r="B27" t="s">
-        <v>38</v>
       </c>
       <c r="C27">
         <v>9</v>
       </c>
-      <c r="D27" t="s">
-        <v>46</v>
+      <c r="D27" s="1">
+        <v>1000</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" t="s">
         <v>39</v>
-      </c>
-      <c r="B28" t="s">
-        <v>40</v>
       </c>
       <c r="C28">
         <v>124</v>
       </c>
-      <c r="D28" t="s">
-        <v>47</v>
+      <c r="D28" s="1">
+        <v>1100</v>
       </c>
     </row>
   </sheetData>

--- a/GE Locomotives.xlsx
+++ b/GE Locomotives.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ds57534\Documents\GitHub\Web-Scraping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39C48ECD-40E9-4F00-857D-B8F46DD99288}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C410403-39CE-4E07-9282-91FB0DFBC621}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{0A46C664-D1A3-4C1C-ADD0-5FEC6ED39D8C}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="352">
   <si>
     <t>20-ton Boxcab</t>
   </si>
@@ -166,6 +166,930 @@
   </si>
   <si>
     <t>Power Output</t>
+  </si>
+  <si>
+    <t>57-ton gas–electric boxcab</t>
+  </si>
+  <si>
+    <t>60-ton demonstrator</t>
+  </si>
+  <si>
+    <t>60-ton boxcab</t>
+  </si>
+  <si>
+    <t>100-ton boxcab</t>
+  </si>
+  <si>
+    <t>EN-6</t>
+  </si>
+  <si>
+    <t>1800-hp transfer</t>
+  </si>
+  <si>
+    <t>2000-hp transfer</t>
+  </si>
+  <si>
+    <t>UM20B</t>
+  </si>
+  <si>
+    <t>2 (1 ea cab and booster)</t>
+  </si>
+  <si>
+    <t>GE GEX3341</t>
+  </si>
+  <si>
+    <t>1954–1966</t>
+  </si>
+  <si>
+    <t>11 White Pass and Yukon Route</t>
+  </si>
+  <si>
+    <t>U4B</t>
+  </si>
+  <si>
+    <t>U5B</t>
+  </si>
+  <si>
+    <t>U6B</t>
+  </si>
+  <si>
+    <t>U8B</t>
+  </si>
+  <si>
+    <t>UM6B</t>
+  </si>
+  <si>
+    <t>U9B</t>
+  </si>
+  <si>
+    <t>U9C</t>
+  </si>
+  <si>
+    <t>U10B / DH class</t>
+  </si>
+  <si>
+    <t>1964–92</t>
+  </si>
+  <si>
+    <t>UM10B</t>
+  </si>
+  <si>
+    <t>U11B</t>
+  </si>
+  <si>
+    <t>U12B</t>
+  </si>
+  <si>
+    <t>U13B</t>
+  </si>
+  <si>
+    <t>UD18</t>
+  </si>
+  <si>
+    <t>U18B</t>
+  </si>
+  <si>
+    <t>1973–76</t>
+  </si>
+  <si>
+    <t>U23B</t>
+  </si>
+  <si>
+    <t>1968–77</t>
+  </si>
+  <si>
+    <t>U25B</t>
+  </si>
+  <si>
+    <t>1959–66</t>
+  </si>
+  <si>
+    <t>U28B</t>
+  </si>
+  <si>
+    <t>1966-1967</t>
+  </si>
+  <si>
+    <t>U30B</t>
+  </si>
+  <si>
+    <t>1966–75</t>
+  </si>
+  <si>
+    <t>U33B</t>
+  </si>
+  <si>
+    <t>U36B</t>
+  </si>
+  <si>
+    <t>1969–74</t>
+  </si>
+  <si>
+    <t>MATE</t>
+  </si>
+  <si>
+    <t>1971–72</t>
+  </si>
+  <si>
+    <t>U12C</t>
+  </si>
+  <si>
+    <t>1956–1961</t>
+  </si>
+  <si>
+    <t>UM12C</t>
+  </si>
+  <si>
+    <t>1956, 1963, 1966</t>
+  </si>
+  <si>
+    <t>20 Philippine National Railways</t>
+  </si>
+  <si>
+    <t>U13C</t>
+  </si>
+  <si>
+    <t>U14C</t>
+  </si>
+  <si>
+    <t>15 (Philippine National Railways)</t>
+  </si>
+  <si>
+    <t>U15C</t>
+  </si>
+  <si>
+    <t>1970–1980</t>
+  </si>
+  <si>
+    <t>274 (70 SAR 35-000, 6 PNR 900)</t>
+  </si>
+  <si>
+    <t>U17C</t>
+  </si>
+  <si>
+    <t>1973–1981</t>
+  </si>
+  <si>
+    <t>U18C</t>
+  </si>
+  <si>
+    <t>1976–1998</t>
+  </si>
+  <si>
+    <t>UM18C</t>
+  </si>
+  <si>
+    <t>U20C</t>
+  </si>
+  <si>
+    <t>1995–2005</t>
+  </si>
+  <si>
+    <t>U22C</t>
+  </si>
+  <si>
+    <t>1975–1985</t>
+  </si>
+  <si>
+    <t>U23C</t>
+  </si>
+  <si>
+    <t>1968–1976</t>
+  </si>
+  <si>
+    <t>U25C</t>
+  </si>
+  <si>
+    <t>1963–65</t>
+  </si>
+  <si>
+    <t>U26C</t>
+  </si>
+  <si>
+    <t>1971–87</t>
+  </si>
+  <si>
+    <t>U28C</t>
+  </si>
+  <si>
+    <t>1965–66</t>
+  </si>
+  <si>
+    <t>U30C</t>
+  </si>
+  <si>
+    <t>1966–76</t>
+  </si>
+  <si>
+    <t>U33C</t>
+  </si>
+  <si>
+    <t>1968–75</t>
+  </si>
+  <si>
+    <t>U36C</t>
+  </si>
+  <si>
+    <t>1971–75</t>
+  </si>
+  <si>
+    <t>U50C</t>
+  </si>
+  <si>
+    <t>1969–71</t>
+  </si>
+  <si>
+    <t>U18C1</t>
+  </si>
+  <si>
+    <t>1959–1961</t>
+  </si>
+  <si>
+    <t>115 (SAR)</t>
+  </si>
+  <si>
+    <t>U20C1</t>
+  </si>
+  <si>
+    <t>10 (SAR)</t>
+  </si>
+  <si>
+    <t>U50</t>
+  </si>
+  <si>
+    <t>B23-7</t>
+  </si>
+  <si>
+    <t>1977–84</t>
+  </si>
+  <si>
+    <t>BQ23-7</t>
+  </si>
+  <si>
+    <t>1978–79</t>
+  </si>
+  <si>
+    <t>B30-7</t>
+  </si>
+  <si>
+    <t>1977–81</t>
+  </si>
+  <si>
+    <t>B30-7A</t>
+  </si>
+  <si>
+    <t>1981–83</t>
+  </si>
+  <si>
+    <t>B36-7</t>
+  </si>
+  <si>
+    <t>1980–85</t>
+  </si>
+  <si>
+    <t>C18-7i</t>
+  </si>
+  <si>
+    <t>C22-7i</t>
+  </si>
+  <si>
+    <t>C30-7</t>
+  </si>
+  <si>
+    <t>1976–85</t>
+  </si>
+  <si>
+    <t>C30-7A</t>
+  </si>
+  <si>
+    <t>1984–85</t>
+  </si>
+  <si>
+    <t>C36-7</t>
+  </si>
+  <si>
+    <t>1978–85</t>
+  </si>
+  <si>
+    <t>Dash 8-32B (B32-8)</t>
+  </si>
+  <si>
+    <t>1984–89</t>
+  </si>
+  <si>
+    <t>Dash 8-36B (B36-8)</t>
+  </si>
+  <si>
+    <t>Dash 8-39B (B39-8)</t>
+  </si>
+  <si>
+    <t>1984–88</t>
+  </si>
+  <si>
+    <t>Dash 8-40B (B40-8)</t>
+  </si>
+  <si>
+    <t>1988–89</t>
+  </si>
+  <si>
+    <t>Dash 8-40BW (B40-8W)</t>
+  </si>
+  <si>
+    <t>1988 1990-1992</t>
+  </si>
+  <si>
+    <t>Dash 8-32C (C32-8)</t>
+  </si>
+  <si>
+    <t>Dash 8-36C (C36-8)</t>
+  </si>
+  <si>
+    <t>Dash 8-39C (C39-8)</t>
+  </si>
+  <si>
+    <t>1983–87</t>
+  </si>
+  <si>
+    <t>Dash 8-40C (C40-8)</t>
+  </si>
+  <si>
+    <t>1987–92</t>
+  </si>
+  <si>
+    <t>Dash 8-40CM (C40-8M)</t>
+  </si>
+  <si>
+    <t>1990-94</t>
+  </si>
+  <si>
+    <t>Dash 8-40CW (C40-8W)</t>
+  </si>
+  <si>
+    <t>1989–94</t>
+  </si>
+  <si>
+    <t>Dash 8.5-40CW</t>
+  </si>
+  <si>
+    <t>2012–16</t>
+  </si>
+  <si>
+    <t>Dash 8-41CW (C41-8W)</t>
+  </si>
+  <si>
+    <t>Dash 8-44CW (C44-8W)</t>
+  </si>
+  <si>
+    <t>Dash-8 BB40-8M</t>
+  </si>
+  <si>
+    <t>Dash 9-40C (C40-9)</t>
+  </si>
+  <si>
+    <t>Dash 9-40CW (C40-9W)</t>
+  </si>
+  <si>
+    <t>1996–2004</t>
+  </si>
+  <si>
+    <t>Dash 9-44CW (C44-9W)</t>
+  </si>
+  <si>
+    <t>1993–2004</t>
+  </si>
+  <si>
+    <t>C38EMi</t>
+  </si>
+  <si>
+    <t>2006-2007</t>
+  </si>
+  <si>
+    <t>C44EMi</t>
+  </si>
+  <si>
+    <t>2007-2008</t>
+  </si>
+  <si>
+    <t>C38AChe</t>
+  </si>
+  <si>
+    <t>2005–2006</t>
+  </si>
+  <si>
+    <t>Dash 9-40BBM (BBM40-9)</t>
+  </si>
+  <si>
+    <t>Dash 9-40BBW (BBW40-9)</t>
+  </si>
+  <si>
+    <t>1997–2006</t>
+  </si>
+  <si>
+    <t>141 (for Vitoria a Minas, Brazil)</t>
+  </si>
+  <si>
+    <t>AC4400CW (CW44AC)</t>
+  </si>
+  <si>
+    <t>2008–</t>
+  </si>
+  <si>
+    <t>1995-2001</t>
+  </si>
+  <si>
+    <t>C30ACi</t>
+  </si>
+  <si>
+    <t>2010-2015</t>
+  </si>
+  <si>
+    <t>C44ACi</t>
+  </si>
+  <si>
+    <t>AC44i</t>
+  </si>
+  <si>
+    <t>AC6000CW (CW60AC)</t>
+  </si>
+  <si>
+    <t>ES40ACi</t>
+  </si>
+  <si>
+    <t>2015–</t>
+  </si>
+  <si>
+    <t>ES40DC</t>
+  </si>
+  <si>
+    <t>2004-2008</t>
+  </si>
+  <si>
+    <t>ES44DC</t>
+  </si>
+  <si>
+    <t>2005–2010</t>
+  </si>
+  <si>
+    <t>ES44DCi</t>
+  </si>
+  <si>
+    <t>ES44AC</t>
+  </si>
+  <si>
+    <t>2003–</t>
+  </si>
+  <si>
+    <t>ES44ACi</t>
+  </si>
+  <si>
+    <t>2009–</t>
+  </si>
+  <si>
+    <t>Over 320 (8 For passengers)</t>
+  </si>
+  <si>
+    <t>ES44C4</t>
+  </si>
+  <si>
+    <t>2009–2020</t>
+  </si>
+  <si>
+    <t>ET44AC</t>
+  </si>
+  <si>
+    <t>ET44C4</t>
+  </si>
+  <si>
+    <t>2015–2020</t>
+  </si>
+  <si>
+    <t>ES58ACi</t>
+  </si>
+  <si>
+    <t>ES59ACi</t>
+  </si>
+  <si>
+    <t>2008–2010</t>
+  </si>
+  <si>
+    <t>700 (300 dual cab)</t>
+  </si>
+  <si>
+    <t>ES43BBi</t>
+  </si>
+  <si>
+    <t>7 (Klabin)[6]</t>
+  </si>
+  <si>
+    <t>BEL44C4D</t>
+  </si>
+  <si>
+    <t>2019–</t>
+  </si>
+  <si>
+    <t>PH37ACmi</t>
+  </si>
+  <si>
+    <t>2009–2017</t>
+  </si>
+  <si>
+    <t>PH37ACi</t>
+  </si>
+  <si>
+    <t>2013–2019</t>
+  </si>
+  <si>
+    <t>PH37ACmai</t>
+  </si>
+  <si>
+    <t>B&amp;O LE-1</t>
+  </si>
+  <si>
+    <t>1895-1896</t>
+  </si>
+  <si>
+    <t>NYC T-1</t>
+  </si>
+  <si>
+    <t>1 New York Central Railroad</t>
+  </si>
+  <si>
+    <t>NYC T-2</t>
+  </si>
+  <si>
+    <t>as S-2</t>
+  </si>
+  <si>
+    <t>34 New York Central Railroad</t>
+  </si>
+  <si>
+    <t>NYC S-3</t>
+  </si>
+  <si>
+    <t>1908–1909</t>
+  </si>
+  <si>
+    <t>12 New York Central Railroad</t>
+  </si>
+  <si>
+    <t>GN boxcab</t>
+  </si>
+  <si>
+    <t>4 Great Northern Railway</t>
+  </si>
+  <si>
+    <t>NH 068[9]</t>
+  </si>
+  <si>
+    <t>1 New York, New Haven and Hartford Railroad</t>
+  </si>
+  <si>
+    <t>NYC T-1b</t>
+  </si>
+  <si>
+    <t>10 New York Central Railroad</t>
+  </si>
+  <si>
+    <t>NYC T-2a</t>
+  </si>
+  <si>
+    <t>16 New York Central Railroad</t>
+  </si>
+  <si>
+    <t>Canadian National Class Z-1-a</t>
+  </si>
+  <si>
+    <t>1914–16</t>
+  </si>
+  <si>
+    <t>6 Canadian Northern Railway</t>
+  </si>
+  <si>
+    <t>MILW EF-1 / EP-1 (GE's self-proclaimed "King of the Rails")[10]</t>
+  </si>
+  <si>
+    <t>1915–1917</t>
+  </si>
+  <si>
+    <t>42 Milwaukee Road</t>
+  </si>
+  <si>
+    <t>MILW ES-1</t>
+  </si>
+  <si>
+    <t>1 Milwaukee Road</t>
+  </si>
+  <si>
+    <t>MILW ES-2</t>
+  </si>
+  <si>
+    <t>1916, 1919</t>
+  </si>
+  <si>
+    <t>4 Milwaukee Road</t>
+  </si>
+  <si>
+    <t>MILW EP-2</t>
+  </si>
+  <si>
+    <t>5 Milwaukee Road</t>
+  </si>
+  <si>
+    <t>NRT S104/105</t>
+  </si>
+  <si>
+    <t>2 Northwestern Elevated Railroad</t>
+  </si>
+  <si>
+    <t>NdeM Boxcabs (No. 1001-1012)</t>
+  </si>
+  <si>
+    <t>12 Mexican Railway</t>
+  </si>
+  <si>
+    <t>JNR ED11 [ja]</t>
+  </si>
+  <si>
+    <t>2 Japanese National Railways</t>
+  </si>
+  <si>
+    <t>JNR ED14 [ja]</t>
+  </si>
+  <si>
+    <t>4 Japanese National Railways</t>
+  </si>
+  <si>
+    <t>New York Central R-Motor</t>
+  </si>
+  <si>
+    <t>2 New York Central Railroad</t>
+  </si>
+  <si>
+    <t>NYC Q</t>
+  </si>
+  <si>
+    <t>New York Central Railroad</t>
+  </si>
+  <si>
+    <t>NYC T-3</t>
+  </si>
+  <si>
+    <t>NH EF2</t>
+  </si>
+  <si>
+    <t>5 New York, New Haven and Hartford Railroad</t>
+  </si>
+  <si>
+    <t>NH EY3</t>
+  </si>
+  <si>
+    <t>2 New York, New Haven and Hartford Railroad</t>
+  </si>
+  <si>
+    <t>GN Y-1</t>
+  </si>
+  <si>
+    <t>1927–1930</t>
+  </si>
+  <si>
+    <t>8 Great Northern Railway</t>
+  </si>
+  <si>
+    <t>CUT P1-a</t>
+  </si>
+  <si>
+    <t>1929–1930</t>
+  </si>
+  <si>
+    <t>22 Cleveland Union Terminal</t>
+  </si>
+  <si>
+    <t>2-C+C-2</t>
+  </si>
+  <si>
+    <t>GE three-power boxcab</t>
+  </si>
+  <si>
+    <t>40 New York Central Railroad</t>
+  </si>
+  <si>
+    <t>NYC R-2</t>
+  </si>
+  <si>
+    <t>1930–1931</t>
+  </si>
+  <si>
+    <t>42 New York Central Railroad</t>
+  </si>
+  <si>
+    <t>NH EP3</t>
+  </si>
+  <si>
+    <t>10 New York, New Haven and Hartford Railroad</t>
+  </si>
+  <si>
+    <t>PRR P5a</t>
+  </si>
+  <si>
+    <t>25 Pennsylvania Railroad</t>
+  </si>
+  <si>
+    <t>PRR GG1</t>
+  </si>
+  <si>
+    <t>1934–1935</t>
+  </si>
+  <si>
+    <t>15 Pennsylvania Railroad</t>
+  </si>
+  <si>
+    <t>NH EP4</t>
+  </si>
+  <si>
+    <t>6 New York, New Haven and Hartford Railroad</t>
+  </si>
+  <si>
+    <t>NH EF3a</t>
+  </si>
+  <si>
+    <t>1940–48</t>
+  </si>
+  <si>
+    <t>22 Paulista Railway</t>
+  </si>
+  <si>
+    <t>2-D+D-2</t>
+  </si>
+  <si>
+    <t>20 Soviet Railways (not delivered –</t>
+  </si>
+  <si>
+    <t>GN W-1</t>
+  </si>
+  <si>
+    <t>2 Great Northern Railway</t>
+  </si>
+  <si>
+    <t>VGN EL-2B</t>
+  </si>
+  <si>
+    <t>4 sets (2 units each) Virginian Railway</t>
+  </si>
+  <si>
+    <t>CN Z-5-a</t>
+  </si>
+  <si>
+    <t>3 Canadian National Railway</t>
+  </si>
+  <si>
+    <t>PRR E2b</t>
+  </si>
+  <si>
+    <t>6 Pennsylvania Railroad</t>
+  </si>
+  <si>
+    <t>NH EP5</t>
+  </si>
+  <si>
+    <t>VGN EL-C</t>
+  </si>
+  <si>
+    <t>1956–57</t>
+  </si>
+  <si>
+    <t>12 Virginian Railway</t>
+  </si>
+  <si>
+    <t>PRR E44</t>
+  </si>
+  <si>
+    <t>1960–63</t>
+  </si>
+  <si>
+    <t>44 Pennsylvania Railroad</t>
+  </si>
+  <si>
+    <t>PRR E44a</t>
+  </si>
+  <si>
+    <t>22 Pennsylvania Railroad</t>
+  </si>
+  <si>
+    <t>E50C</t>
+  </si>
+  <si>
+    <t>2 Muskingum Electric Railroad</t>
+  </si>
+  <si>
+    <t>E60C</t>
+  </si>
+  <si>
+    <t>1972–76</t>
+  </si>
+  <si>
+    <t>6 Black Mesa and Lake Powell Railroad</t>
+  </si>
+  <si>
+    <t>E60CH / E60CP</t>
+  </si>
+  <si>
+    <t>1974–76</t>
+  </si>
+  <si>
+    <t>26 Amtrak, (5 Steam generator), (20 Head End Power/ HEP)</t>
+  </si>
+  <si>
+    <t>E25B</t>
+  </si>
+  <si>
+    <t>7 Texas Utilities</t>
+  </si>
+  <si>
+    <t>E42C [zh]</t>
+  </si>
+  <si>
+    <t>1977–81, 1992</t>
+  </si>
+  <si>
+    <t>97 Taiwan Railway Administration</t>
+  </si>
+  <si>
+    <t>E60C-2</t>
+  </si>
+  <si>
+    <t>1982–83</t>
+  </si>
+  <si>
+    <t>39 Ferrocarriles Nacionales de México</t>
+  </si>
+  <si>
+    <t>GE steam turbine locomotives</t>
+  </si>
+  <si>
+    <t>4500 HP GTEL</t>
+  </si>
+  <si>
+    <t>1948–1954</t>
+  </si>
+  <si>
+    <t>8500 HP GTEL</t>
+  </si>
+  <si>
+    <t>1958–1961</t>
+  </si>
+  <si>
+    <t>UM 106T</t>
+  </si>
+  <si>
+    <t>CC200</t>
+  </si>
+  <si>
+    <t>U18A1A</t>
+  </si>
+  <si>
+    <t>1978–1983</t>
+  </si>
+  <si>
+    <t>BB203</t>
+  </si>
+  <si>
+    <t>1977–1992</t>
+  </si>
+  <si>
+    <t>CC201</t>
+  </si>
+  <si>
+    <t>U20C Widecab</t>
+  </si>
+  <si>
+    <t>1995–2000</t>
+  </si>
+  <si>
+    <t>CC203</t>
+  </si>
+  <si>
+    <t>C18MMi</t>
+  </si>
+  <si>
+    <t>2003–2005</t>
+  </si>
+  <si>
+    <t>CC204</t>
+  </si>
+  <si>
+    <t>C20EMP</t>
+  </si>
+  <si>
+    <t>2006–2011</t>
+  </si>
+  <si>
+    <t>CM20EMP</t>
+  </si>
+  <si>
+    <t>2012–2016</t>
+  </si>
+  <si>
+    <t>CC206</t>
   </si>
 </sst>
 </file>
@@ -518,10 +1442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3471B674-E451-49E3-A47D-FB515A846D7C}">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D192"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="U196" sqref="U196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -870,7 +1794,2205 @@
         <v>1100</v>
       </c>
     </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>44</v>
+      </c>
+      <c r="B29">
+        <v>1913</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>45</v>
+      </c>
+      <c r="D30">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>46</v>
+      </c>
+      <c r="D31">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>47</v>
+      </c>
+      <c r="D32">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>49</v>
+      </c>
+      <c r="B34">
+        <v>1936</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>50</v>
+      </c>
+      <c r="B35">
+        <v>1936</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>51</v>
+      </c>
+      <c r="B36">
+        <v>1954</v>
+      </c>
+      <c r="C36" t="s">
+        <v>52</v>
+      </c>
+      <c r="D36">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>51</v>
+      </c>
+      <c r="B37">
+        <v>1954</v>
+      </c>
+      <c r="C37" t="s">
+        <v>52</v>
+      </c>
+      <c r="D37">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>53</v>
+      </c>
+      <c r="B38" t="s">
+        <v>54</v>
+      </c>
+      <c r="C38" t="s">
+        <v>55</v>
+      </c>
+      <c r="D38">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>57</v>
+      </c>
+      <c r="B40">
+        <v>1963</v>
+      </c>
+      <c r="C40">
+        <v>139</v>
+      </c>
+      <c r="D40">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>58</v>
+      </c>
+      <c r="B41">
+        <v>1959</v>
+      </c>
+      <c r="C41">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>59</v>
+      </c>
+      <c r="B42">
+        <v>1960</v>
+      </c>
+      <c r="C42">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>60</v>
+      </c>
+      <c r="B43">
+        <v>1973</v>
+      </c>
+      <c r="C43">
+        <v>20</v>
+      </c>
+      <c r="D43">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>61</v>
+      </c>
+      <c r="B44">
+        <v>1957</v>
+      </c>
+      <c r="C44">
+        <v>13</v>
+      </c>
+      <c r="D44">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>62</v>
+      </c>
+      <c r="B45">
+        <v>1958</v>
+      </c>
+      <c r="C45">
+        <v>16</v>
+      </c>
+      <c r="D45">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>63</v>
+      </c>
+      <c r="B46" t="s">
+        <v>64</v>
+      </c>
+      <c r="C46">
+        <v>447</v>
+      </c>
+      <c r="D46">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>65</v>
+      </c>
+      <c r="B47">
+        <v>1961</v>
+      </c>
+      <c r="C47">
+        <v>86</v>
+      </c>
+      <c r="D47">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>66</v>
+      </c>
+      <c r="B48">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>67</v>
+      </c>
+      <c r="B49">
+        <v>1958</v>
+      </c>
+      <c r="C49">
+        <v>97</v>
+      </c>
+      <c r="D49">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>68</v>
+      </c>
+      <c r="C50">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>69</v>
+      </c>
+      <c r="B51">
+        <v>1956</v>
+      </c>
+      <c r="C51">
+        <v>10</v>
+      </c>
+      <c r="D51">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>70</v>
+      </c>
+      <c r="B52" t="s">
+        <v>71</v>
+      </c>
+      <c r="C52">
+        <v>163</v>
+      </c>
+      <c r="D52">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>72</v>
+      </c>
+      <c r="B53" t="s">
+        <v>73</v>
+      </c>
+      <c r="C53">
+        <v>481</v>
+      </c>
+      <c r="D53">
+        <v>2350</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>74</v>
+      </c>
+      <c r="B54" t="s">
+        <v>75</v>
+      </c>
+      <c r="C54">
+        <v>478</v>
+      </c>
+      <c r="D54">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>76</v>
+      </c>
+      <c r="B55" t="s">
+        <v>77</v>
+      </c>
+      <c r="C55">
+        <v>148</v>
+      </c>
+      <c r="D55">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>78</v>
+      </c>
+      <c r="B56" t="s">
+        <v>79</v>
+      </c>
+      <c r="C56">
+        <v>295</v>
+      </c>
+      <c r="D56">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>80</v>
+      </c>
+      <c r="B57" t="s">
+        <v>79</v>
+      </c>
+      <c r="C57">
+        <v>137</v>
+      </c>
+      <c r="D57">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>81</v>
+      </c>
+      <c r="B58" t="s">
+        <v>82</v>
+      </c>
+      <c r="C58">
+        <v>125</v>
+      </c>
+      <c r="D58">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>83</v>
+      </c>
+      <c r="B59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>85</v>
+      </c>
+      <c r="B60" t="s">
+        <v>86</v>
+      </c>
+      <c r="C60">
+        <v>153</v>
+      </c>
+      <c r="D60">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>87</v>
+      </c>
+      <c r="B61" t="s">
+        <v>88</v>
+      </c>
+      <c r="C61" t="s">
+        <v>89</v>
+      </c>
+      <c r="D61">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>90</v>
+      </c>
+      <c r="B62">
+        <v>1967</v>
+      </c>
+      <c r="C62">
+        <v>109</v>
+      </c>
+      <c r="D62">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>91</v>
+      </c>
+      <c r="B63">
+        <v>1979</v>
+      </c>
+      <c r="C63" t="s">
+        <v>92</v>
+      </c>
+      <c r="D63">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>93</v>
+      </c>
+      <c r="B64" t="s">
+        <v>94</v>
+      </c>
+      <c r="C64" t="s">
+        <v>95</v>
+      </c>
+      <c r="D64">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>96</v>
+      </c>
+      <c r="B65" t="s">
+        <v>97</v>
+      </c>
+      <c r="C65">
+        <v>30</v>
+      </c>
+      <c r="D65">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>98</v>
+      </c>
+      <c r="B66" t="s">
+        <v>99</v>
+      </c>
+      <c r="C66">
+        <v>420</v>
+      </c>
+      <c r="D66">
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>101</v>
+      </c>
+      <c r="B68" t="s">
+        <v>102</v>
+      </c>
+      <c r="C68">
+        <v>984</v>
+      </c>
+      <c r="D68">
+        <v>2150</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>103</v>
+      </c>
+      <c r="B69" t="s">
+        <v>104</v>
+      </c>
+      <c r="C69">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>105</v>
+      </c>
+      <c r="B70" t="s">
+        <v>106</v>
+      </c>
+      <c r="C70">
+        <v>223</v>
+      </c>
+      <c r="D70">
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>107</v>
+      </c>
+      <c r="B71" t="s">
+        <v>108</v>
+      </c>
+      <c r="C71">
+        <v>113</v>
+      </c>
+      <c r="D71">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>109</v>
+      </c>
+      <c r="B72" t="s">
+        <v>110</v>
+      </c>
+      <c r="C72">
+        <v>392</v>
+      </c>
+      <c r="D72">
+        <v>2750</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>111</v>
+      </c>
+      <c r="B73" t="s">
+        <v>112</v>
+      </c>
+      <c r="C73">
+        <v>71</v>
+      </c>
+      <c r="D73">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>113</v>
+      </c>
+      <c r="B74" t="s">
+        <v>114</v>
+      </c>
+      <c r="C74">
+        <v>600</v>
+      </c>
+      <c r="D74">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>115</v>
+      </c>
+      <c r="B75" t="s">
+        <v>116</v>
+      </c>
+      <c r="C75">
+        <v>375</v>
+      </c>
+      <c r="D75">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>117</v>
+      </c>
+      <c r="B76" t="s">
+        <v>118</v>
+      </c>
+      <c r="C76">
+        <v>238</v>
+      </c>
+      <c r="D76">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>119</v>
+      </c>
+      <c r="B77" t="s">
+        <v>120</v>
+      </c>
+      <c r="C77">
+        <v>40</v>
+      </c>
+      <c r="D77">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>121</v>
+      </c>
+      <c r="B78" t="s">
+        <v>122</v>
+      </c>
+      <c r="C78" t="s">
+        <v>123</v>
+      </c>
+      <c r="D78">
+        <v>2150</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>124</v>
+      </c>
+      <c r="B79">
+        <v>1966</v>
+      </c>
+      <c r="C79" t="s">
+        <v>125</v>
+      </c>
+      <c r="D79">
+        <v>2150</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>126</v>
+      </c>
+      <c r="B80" t="s">
+        <v>108</v>
+      </c>
+      <c r="C80">
+        <v>26</v>
+      </c>
+      <c r="D80">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>127</v>
+      </c>
+      <c r="B81" t="s">
+        <v>128</v>
+      </c>
+      <c r="C81">
+        <v>536</v>
+      </c>
+      <c r="D81">
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>129</v>
+      </c>
+      <c r="B82" t="s">
+        <v>130</v>
+      </c>
+      <c r="C82">
+        <v>10</v>
+      </c>
+      <c r="D82">
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>131</v>
+      </c>
+      <c r="B83" t="s">
+        <v>132</v>
+      </c>
+      <c r="C83">
+        <v>199</v>
+      </c>
+      <c r="D83">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>133</v>
+      </c>
+      <c r="B84" t="s">
+        <v>134</v>
+      </c>
+      <c r="C84">
+        <v>197</v>
+      </c>
+      <c r="D84">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>135</v>
+      </c>
+      <c r="B85" t="s">
+        <v>136</v>
+      </c>
+      <c r="C85">
+        <v>230</v>
+      </c>
+      <c r="D85">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>137</v>
+      </c>
+      <c r="B86">
+        <v>1993</v>
+      </c>
+      <c r="C86">
+        <v>10</v>
+      </c>
+      <c r="D86">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>138</v>
+      </c>
+      <c r="B87">
+        <v>1999</v>
+      </c>
+      <c r="C87">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>139</v>
+      </c>
+      <c r="B88" t="s">
+        <v>140</v>
+      </c>
+      <c r="C88" s="1">
+        <v>1137</v>
+      </c>
+      <c r="D88">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>141</v>
+      </c>
+      <c r="B89" t="s">
+        <v>142</v>
+      </c>
+      <c r="C89">
+        <v>50</v>
+      </c>
+      <c r="D89">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>143</v>
+      </c>
+      <c r="B90" t="s">
+        <v>144</v>
+      </c>
+      <c r="C90">
+        <v>599</v>
+      </c>
+      <c r="D90">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>145</v>
+      </c>
+      <c r="B91" t="s">
+        <v>146</v>
+      </c>
+      <c r="C91">
+        <v>49</v>
+      </c>
+      <c r="D91">
+        <v>3150</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>147</v>
+      </c>
+      <c r="B92">
+        <v>1982</v>
+      </c>
+      <c r="C92">
+        <v>1</v>
+      </c>
+      <c r="D92">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>148</v>
+      </c>
+      <c r="B93" t="s">
+        <v>149</v>
+      </c>
+      <c r="C93">
+        <v>146</v>
+      </c>
+      <c r="D93">
+        <v>3900</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>150</v>
+      </c>
+      <c r="B94" t="s">
+        <v>151</v>
+      </c>
+      <c r="C94">
+        <v>151</v>
+      </c>
+      <c r="D94">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>152</v>
+      </c>
+      <c r="B95" t="s">
+        <v>153</v>
+      </c>
+      <c r="C95">
+        <v>96</v>
+      </c>
+      <c r="D95">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>154</v>
+      </c>
+      <c r="B96">
+        <v>1984</v>
+      </c>
+      <c r="C96">
+        <v>10</v>
+      </c>
+      <c r="D96">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>155</v>
+      </c>
+      <c r="B97">
+        <v>1983</v>
+      </c>
+      <c r="C97">
+        <v>1</v>
+      </c>
+      <c r="D97">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>156</v>
+      </c>
+      <c r="B98" t="s">
+        <v>157</v>
+      </c>
+      <c r="C98">
+        <v>162</v>
+      </c>
+      <c r="D98">
+        <v>3900</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>158</v>
+      </c>
+      <c r="B99" t="s">
+        <v>159</v>
+      </c>
+      <c r="C99">
+        <v>585</v>
+      </c>
+      <c r="D99">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>160</v>
+      </c>
+      <c r="B100" t="s">
+        <v>161</v>
+      </c>
+      <c r="C100">
+        <v>84</v>
+      </c>
+      <c r="D100">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>162</v>
+      </c>
+      <c r="B101" t="s">
+        <v>163</v>
+      </c>
+      <c r="C101">
+        <v>875</v>
+      </c>
+      <c r="D101">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>164</v>
+      </c>
+      <c r="B102" t="s">
+        <v>165</v>
+      </c>
+      <c r="D102">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>166</v>
+      </c>
+      <c r="B103">
+        <v>1993</v>
+      </c>
+      <c r="C103">
+        <v>27</v>
+      </c>
+      <c r="D103">
+        <v>4135</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>167</v>
+      </c>
+      <c r="B104">
+        <v>1993</v>
+      </c>
+      <c r="C104">
+        <v>53</v>
+      </c>
+      <c r="D104">
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>168</v>
+      </c>
+      <c r="C105">
+        <v>6</v>
+      </c>
+      <c r="D105">
+        <v>4100</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>169</v>
+      </c>
+      <c r="B106">
+        <v>1995</v>
+      </c>
+      <c r="C106">
+        <v>125</v>
+      </c>
+      <c r="D106">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>170</v>
+      </c>
+      <c r="B107" t="s">
+        <v>171</v>
+      </c>
+      <c r="C107" s="1">
+        <v>1090</v>
+      </c>
+      <c r="D107">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>172</v>
+      </c>
+      <c r="B108" t="s">
+        <v>173</v>
+      </c>
+      <c r="C108" s="1">
+        <v>2494</v>
+      </c>
+      <c r="D108">
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>174</v>
+      </c>
+      <c r="B109" t="s">
+        <v>175</v>
+      </c>
+      <c r="C109">
+        <v>40</v>
+      </c>
+      <c r="D109">
+        <v>3800</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>176</v>
+      </c>
+      <c r="B110" t="s">
+        <v>177</v>
+      </c>
+      <c r="C110">
+        <v>45</v>
+      </c>
+      <c r="D110">
+        <v>3800</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>178</v>
+      </c>
+      <c r="B111" t="s">
+        <v>179</v>
+      </c>
+      <c r="C111">
+        <v>78</v>
+      </c>
+      <c r="D111">
+        <v>3800</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>180</v>
+      </c>
+      <c r="B112">
+        <v>1995</v>
+      </c>
+      <c r="D112">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>181</v>
+      </c>
+      <c r="B113" t="s">
+        <v>182</v>
+      </c>
+      <c r="C113" t="s">
+        <v>183</v>
+      </c>
+      <c r="D113">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>184</v>
+      </c>
+      <c r="B114" t="s">
+        <v>173</v>
+      </c>
+      <c r="C114" s="1">
+        <v>3018</v>
+      </c>
+      <c r="D114">
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>190</v>
+      </c>
+      <c r="B115" t="s">
+        <v>185</v>
+      </c>
+      <c r="C115">
+        <v>550</v>
+      </c>
+      <c r="D115">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>191</v>
+      </c>
+      <c r="B116" t="s">
+        <v>186</v>
+      </c>
+      <c r="C116">
+        <v>317</v>
+      </c>
+      <c r="D116">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>187</v>
+      </c>
+      <c r="B117" t="s">
+        <v>188</v>
+      </c>
+      <c r="C117">
+        <v>203</v>
+      </c>
+      <c r="D117">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>189</v>
+      </c>
+      <c r="B118" t="s">
+        <v>185</v>
+      </c>
+      <c r="C118">
+        <v>140</v>
+      </c>
+      <c r="D118">
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>192</v>
+      </c>
+      <c r="B119" t="s">
+        <v>193</v>
+      </c>
+      <c r="C119">
+        <v>233</v>
+      </c>
+      <c r="D119">
+        <v>4200</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>194</v>
+      </c>
+      <c r="B120" t="s">
+        <v>195</v>
+      </c>
+      <c r="C120">
+        <v>522</v>
+      </c>
+      <c r="D120">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>196</v>
+      </c>
+      <c r="B121" t="s">
+        <v>197</v>
+      </c>
+      <c r="C121">
+        <v>847</v>
+      </c>
+      <c r="D121">
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>198</v>
+      </c>
+      <c r="D122">
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>199</v>
+      </c>
+      <c r="B123" t="s">
+        <v>200</v>
+      </c>
+      <c r="C123" s="1">
+        <v>4096</v>
+      </c>
+      <c r="D123">
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>201</v>
+      </c>
+      <c r="B124" t="s">
+        <v>202</v>
+      </c>
+      <c r="C124" t="s">
+        <v>203</v>
+      </c>
+      <c r="D124">
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>204</v>
+      </c>
+      <c r="B125" t="s">
+        <v>205</v>
+      </c>
+      <c r="C125" s="1">
+        <v>1323</v>
+      </c>
+      <c r="D125">
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>206</v>
+      </c>
+      <c r="B126" t="s">
+        <v>193</v>
+      </c>
+      <c r="C126">
+        <v>862</v>
+      </c>
+      <c r="D126">
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>207</v>
+      </c>
+      <c r="B127" t="s">
+        <v>208</v>
+      </c>
+      <c r="C127">
+        <v>311</v>
+      </c>
+      <c r="D127">
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>209</v>
+      </c>
+      <c r="B128" t="s">
+        <v>202</v>
+      </c>
+      <c r="C128">
+        <v>73</v>
+      </c>
+      <c r="D128">
+        <v>6200</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>210</v>
+      </c>
+      <c r="B129" t="s">
+        <v>211</v>
+      </c>
+      <c r="C129" t="s">
+        <v>212</v>
+      </c>
+      <c r="D129">
+        <v>6250</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>213</v>
+      </c>
+      <c r="B130" t="s">
+        <v>193</v>
+      </c>
+      <c r="C130" t="s">
+        <v>214</v>
+      </c>
+      <c r="D130">
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>215</v>
+      </c>
+      <c r="B131" t="s">
+        <v>216</v>
+      </c>
+      <c r="C131">
+        <v>1</v>
+      </c>
+      <c r="D131">
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>217</v>
+      </c>
+      <c r="B132" t="s">
+        <v>218</v>
+      </c>
+      <c r="C132">
+        <v>37</v>
+      </c>
+      <c r="D132">
+        <v>3690</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>219</v>
+      </c>
+      <c r="B133" t="s">
+        <v>220</v>
+      </c>
+      <c r="C133">
+        <v>50</v>
+      </c>
+      <c r="D133">
+        <v>3690</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>221</v>
+      </c>
+      <c r="B134">
+        <v>2014</v>
+      </c>
+      <c r="C134">
+        <v>3</v>
+      </c>
+      <c r="D134">
+        <v>3690</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>222</v>
+      </c>
+      <c r="B135" t="s">
+        <v>223</v>
+      </c>
+      <c r="C135">
+        <v>3</v>
+      </c>
+      <c r="D135">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>224</v>
+      </c>
+      <c r="B136">
+        <v>1904</v>
+      </c>
+      <c r="C136" t="s">
+        <v>225</v>
+      </c>
+      <c r="D136">
+        <v>1695</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>226</v>
+      </c>
+      <c r="B137">
+        <v>1906</v>
+      </c>
+      <c r="C137" t="s">
+        <v>228</v>
+      </c>
+      <c r="D137">
+        <v>1695</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>229</v>
+      </c>
+      <c r="B139" t="s">
+        <v>230</v>
+      </c>
+      <c r="C139" t="s">
+        <v>231</v>
+      </c>
+      <c r="D139">
+        <v>1695</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>232</v>
+      </c>
+      <c r="B140">
+        <v>1909</v>
+      </c>
+      <c r="C140" t="s">
+        <v>233</v>
+      </c>
+      <c r="D140">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>234</v>
+      </c>
+      <c r="B141">
+        <v>1912</v>
+      </c>
+      <c r="C141" t="s">
+        <v>235</v>
+      </c>
+      <c r="D141">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>236</v>
+      </c>
+      <c r="B142">
+        <v>1913</v>
+      </c>
+      <c r="C142" t="s">
+        <v>237</v>
+      </c>
+      <c r="D142">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>238</v>
+      </c>
+      <c r="B143">
+        <v>1914</v>
+      </c>
+      <c r="C143" t="s">
+        <v>239</v>
+      </c>
+      <c r="D143">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>240</v>
+      </c>
+      <c r="B144" t="s">
+        <v>241</v>
+      </c>
+      <c r="C144" t="s">
+        <v>242</v>
+      </c>
+      <c r="D144">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>243</v>
+      </c>
+      <c r="B145" t="s">
+        <v>244</v>
+      </c>
+      <c r="C145" t="s">
+        <v>245</v>
+      </c>
+      <c r="D145">
+        <v>3340</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>246</v>
+      </c>
+      <c r="B146">
+        <v>1915</v>
+      </c>
+      <c r="C146" t="s">
+        <v>247</v>
+      </c>
+      <c r="D146">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>248</v>
+      </c>
+      <c r="B147" t="s">
+        <v>249</v>
+      </c>
+      <c r="C147" t="s">
+        <v>250</v>
+      </c>
+      <c r="D147">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>251</v>
+      </c>
+      <c r="B148">
+        <v>1919</v>
+      </c>
+      <c r="C148" t="s">
+        <v>252</v>
+      </c>
+      <c r="D148">
+        <v>3180</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>253</v>
+      </c>
+      <c r="B149">
+        <v>1920</v>
+      </c>
+      <c r="C149" t="s">
+        <v>254</v>
+      </c>
+      <c r="D149">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>255</v>
+      </c>
+      <c r="B150">
+        <v>1923</v>
+      </c>
+      <c r="C150" t="s">
+        <v>256</v>
+      </c>
+      <c r="D150">
+        <v>2520</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>257</v>
+      </c>
+      <c r="B151">
+        <v>1923</v>
+      </c>
+      <c r="C151" t="s">
+        <v>258</v>
+      </c>
+      <c r="D151">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>259</v>
+      </c>
+      <c r="B152">
+        <v>1926</v>
+      </c>
+      <c r="C152" t="s">
+        <v>260</v>
+      </c>
+      <c r="D152">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>261</v>
+      </c>
+      <c r="B153">
+        <v>1926</v>
+      </c>
+      <c r="C153" t="s">
+        <v>262</v>
+      </c>
+      <c r="D153">
+        <v>3320</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>263</v>
+      </c>
+      <c r="B154">
+        <v>1926</v>
+      </c>
+      <c r="C154" t="s">
+        <v>264</v>
+      </c>
+      <c r="D154">
+        <v>1665</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>265</v>
+      </c>
+      <c r="B155">
+        <v>1926</v>
+      </c>
+      <c r="C155" t="s">
+        <v>237</v>
+      </c>
+      <c r="D155">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>266</v>
+      </c>
+      <c r="B156">
+        <v>1926</v>
+      </c>
+      <c r="C156" t="s">
+        <v>267</v>
+      </c>
+      <c r="D156">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>268</v>
+      </c>
+      <c r="B157">
+        <v>1926</v>
+      </c>
+      <c r="C157" t="s">
+        <v>269</v>
+      </c>
+      <c r="D157">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>270</v>
+      </c>
+      <c r="B158" t="s">
+        <v>271</v>
+      </c>
+      <c r="C158" t="s">
+        <v>272</v>
+      </c>
+      <c r="D158">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>273</v>
+      </c>
+      <c r="B159" t="s">
+        <v>274</v>
+      </c>
+      <c r="C159" t="s">
+        <v>275</v>
+      </c>
+      <c r="D159">
+        <v>3030</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>277</v>
+      </c>
+      <c r="B160">
+        <v>1930</v>
+      </c>
+      <c r="C160" t="s">
+        <v>278</v>
+      </c>
+      <c r="D160">
+        <v>1580</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>279</v>
+      </c>
+      <c r="B161" t="s">
+        <v>280</v>
+      </c>
+      <c r="C161" t="s">
+        <v>281</v>
+      </c>
+      <c r="D161">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>282</v>
+      </c>
+      <c r="B162">
+        <v>1931</v>
+      </c>
+      <c r="C162" t="s">
+        <v>283</v>
+      </c>
+      <c r="D162">
+        <v>3440</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>284</v>
+      </c>
+      <c r="B163">
+        <v>1932</v>
+      </c>
+      <c r="C163" t="s">
+        <v>285</v>
+      </c>
+      <c r="D163">
+        <v>3750</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>286</v>
+      </c>
+      <c r="B164" t="s">
+        <v>287</v>
+      </c>
+      <c r="C164" t="s">
+        <v>288</v>
+      </c>
+      <c r="D164">
+        <v>4620</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>289</v>
+      </c>
+      <c r="B165">
+        <v>1938</v>
+      </c>
+      <c r="C165" t="s">
+        <v>290</v>
+      </c>
+      <c r="D165">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>291</v>
+      </c>
+      <c r="B166">
+        <v>1942</v>
+      </c>
+      <c r="C166" t="s">
+        <v>267</v>
+      </c>
+      <c r="D166">
+        <v>4860</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>276</v>
+      </c>
+      <c r="B167" t="s">
+        <v>292</v>
+      </c>
+      <c r="C167" t="s">
+        <v>293</v>
+      </c>
+      <c r="D167">
+        <v>3800</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>294</v>
+      </c>
+      <c r="B168">
+        <v>1946</v>
+      </c>
+      <c r="C168" t="s">
+        <v>295</v>
+      </c>
+      <c r="D168">
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>296</v>
+      </c>
+      <c r="B169">
+        <v>1947</v>
+      </c>
+      <c r="C169" t="s">
+        <v>297</v>
+      </c>
+      <c r="D169">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>298</v>
+      </c>
+      <c r="B170">
+        <v>1948</v>
+      </c>
+      <c r="C170" t="s">
+        <v>299</v>
+      </c>
+      <c r="D170">
+        <v>6800</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>300</v>
+      </c>
+      <c r="B171">
+        <v>1950</v>
+      </c>
+      <c r="C171" t="s">
+        <v>301</v>
+      </c>
+      <c r="D171">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>302</v>
+      </c>
+      <c r="B172">
+        <v>1951</v>
+      </c>
+      <c r="C172" t="s">
+        <v>303</v>
+      </c>
+      <c r="D172">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>304</v>
+      </c>
+      <c r="B173">
+        <v>1954</v>
+      </c>
+      <c r="C173" t="s">
+        <v>283</v>
+      </c>
+      <c r="D173">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>305</v>
+      </c>
+      <c r="B174" t="s">
+        <v>306</v>
+      </c>
+      <c r="C174" t="s">
+        <v>307</v>
+      </c>
+      <c r="D174">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>308</v>
+      </c>
+      <c r="B175" t="s">
+        <v>309</v>
+      </c>
+      <c r="C175" t="s">
+        <v>310</v>
+      </c>
+      <c r="D175">
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>311</v>
+      </c>
+      <c r="B176" t="s">
+        <v>309</v>
+      </c>
+      <c r="C176" t="s">
+        <v>312</v>
+      </c>
+      <c r="D176">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>313</v>
+      </c>
+      <c r="B177">
+        <v>1968</v>
+      </c>
+      <c r="C177" t="s">
+        <v>314</v>
+      </c>
+      <c r="D177">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>315</v>
+      </c>
+      <c r="B178" t="s">
+        <v>316</v>
+      </c>
+      <c r="C178" t="s">
+        <v>317</v>
+      </c>
+      <c r="D178">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>318</v>
+      </c>
+      <c r="B179" t="s">
+        <v>319</v>
+      </c>
+      <c r="C179" t="s">
+        <v>320</v>
+      </c>
+      <c r="D179">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>321</v>
+      </c>
+      <c r="B180">
+        <v>1976</v>
+      </c>
+      <c r="C180" t="s">
+        <v>322</v>
+      </c>
+      <c r="D180">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>323</v>
+      </c>
+      <c r="B181" t="s">
+        <v>324</v>
+      </c>
+      <c r="C181" t="s">
+        <v>325</v>
+      </c>
+      <c r="D181">
+        <v>3800</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>326</v>
+      </c>
+      <c r="B182" t="s">
+        <v>327</v>
+      </c>
+      <c r="C182" t="s">
+        <v>328</v>
+      </c>
+      <c r="D182">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>329</v>
+      </c>
+      <c r="B183">
+        <v>1938</v>
+      </c>
+      <c r="C183">
+        <v>2</v>
+      </c>
+      <c r="D183">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>330</v>
+      </c>
+      <c r="B184" t="s">
+        <v>331</v>
+      </c>
+      <c r="C184">
+        <v>26</v>
+      </c>
+      <c r="D184">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>332</v>
+      </c>
+      <c r="B185" t="s">
+        <v>333</v>
+      </c>
+      <c r="C185">
+        <v>30</v>
+      </c>
+      <c r="D185">
+        <v>8500</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>334</v>
+      </c>
+      <c r="B186">
+        <v>1953</v>
+      </c>
+      <c r="C186" t="s">
+        <v>335</v>
+      </c>
+      <c r="D186">
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>336</v>
+      </c>
+      <c r="B187" t="s">
+        <v>337</v>
+      </c>
+      <c r="C187" t="s">
+        <v>338</v>
+      </c>
+      <c r="D187">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>98</v>
+      </c>
+      <c r="B188" t="s">
+        <v>339</v>
+      </c>
+      <c r="C188" t="s">
+        <v>340</v>
+      </c>
+      <c r="D188">
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>341</v>
+      </c>
+      <c r="B189" t="s">
+        <v>342</v>
+      </c>
+      <c r="C189" t="s">
+        <v>343</v>
+      </c>
+      <c r="D189">
+        <v>2150</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>344</v>
+      </c>
+      <c r="B190" t="s">
+        <v>345</v>
+      </c>
+      <c r="C190" t="s">
+        <v>346</v>
+      </c>
+      <c r="D190">
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>347</v>
+      </c>
+      <c r="B191" t="s">
+        <v>348</v>
+      </c>
+      <c r="C191" t="s">
+        <v>346</v>
+      </c>
+      <c r="D191">
+        <v>2150</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>349</v>
+      </c>
+      <c r="B192" t="s">
+        <v>350</v>
+      </c>
+      <c r="C192" t="s">
+        <v>351</v>
+      </c>
+      <c r="D192">
+        <v>2250</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>